--- a/output/QUANTITAS_22918359000185.xlsx
+++ b/output/QUANTITAS_22918359000185.xlsx
@@ -1032,10 +1032,10 @@
         <v>44165</v>
       </c>
       <c r="B59">
-        <v>0.715390438</v>
+        <v>0.7133242000000002</v>
       </c>
       <c r="C59">
-        <v>0.02002653144589028</v>
+        <v>0.01879787962785939</v>
       </c>
     </row>
   </sheetData>

--- a/output/QUANTITAS_22918359000185.xlsx
+++ b/output/QUANTITAS_22918359000185.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>QUANTITAS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO MALLORCA</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,656 +383,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42429</v>
       </c>
       <c r="B2">
-        <v>0.004330769999999928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42460</v>
       </c>
       <c r="B3">
-        <v>0.029108205</v>
-      </c>
-      <c r="C3">
         <v>0.02467059233881685</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42490</v>
       </c>
       <c r="B4">
-        <v>0.06727554100000011</v>
-      </c>
-      <c r="C4">
         <v>0.03708777737322588</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42521</v>
       </c>
       <c r="B5">
-        <v>0.06855344399999996</v>
-      </c>
-      <c r="C5">
         <v>0.001197350591209512</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42551</v>
       </c>
       <c r="B6">
-        <v>0.09206450600000005</v>
-      </c>
-      <c r="C6">
         <v>0.02200270106471169</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42582</v>
       </c>
       <c r="B7">
-        <v>0.1223666649999999</v>
-      </c>
-      <c r="C7">
         <v>0.02774759076365396</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42613</v>
       </c>
       <c r="B8">
-        <v>0.1425495619999999</v>
-      </c>
-      <c r="C8">
         <v>0.01798244515752789</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42643</v>
       </c>
       <c r="B9">
-        <v>0.158673713</v>
-      </c>
-      <c r="C9">
         <v>0.01411243024921838</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42674</v>
       </c>
       <c r="B10">
-        <v>0.178654957</v>
-      </c>
-      <c r="C10">
         <v>0.01724492734737648</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42704</v>
       </c>
       <c r="B11">
-        <v>0.188688207</v>
-      </c>
-      <c r="C11">
         <v>0.008512457306027343</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42735</v>
       </c>
       <c r="B12">
-        <v>0.2109810679999999</v>
-      </c>
-      <c r="C12">
         <v>0.01875417024306358</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42766</v>
       </c>
       <c r="B13">
-        <v>0.2288765340000001</v>
-      </c>
-      <c r="C13">
         <v>0.01477765959591371</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42794</v>
       </c>
       <c r="B14">
-        <v>0.235962985</v>
-      </c>
-      <c r="C14">
         <v>0.005766609422456437</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42825</v>
       </c>
       <c r="B15">
-        <v>0.253397705</v>
-      </c>
-      <c r="C15">
         <v>0.01410618296145816</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42855</v>
       </c>
       <c r="B16">
-        <v>0.2594356550000001</v>
-      </c>
-      <c r="C16">
         <v>0.004817265881303046</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42886</v>
       </c>
       <c r="B17">
-        <v>0.28473981</v>
-      </c>
-      <c r="C17">
         <v>0.02009166161013587</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42916</v>
       </c>
       <c r="B18">
-        <v>0.2996343129999999</v>
-      </c>
-      <c r="C18">
         <v>0.01159340037886736</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42947</v>
       </c>
       <c r="B19">
-        <v>0.313538428</v>
-      </c>
-      <c r="C19">
         <v>0.01069848253537153</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42978</v>
       </c>
       <c r="B20">
-        <v>0.3320331289999998</v>
-      </c>
-      <c r="C20">
         <v>0.01408006085376567</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43008</v>
       </c>
       <c r="B21">
-        <v>0.3505094399999999</v>
-      </c>
-      <c r="C21">
         <v>0.01387075936607585</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43039</v>
       </c>
       <c r="B22">
-        <v>0.3677003719999998</v>
-      </c>
-      <c r="C22">
         <v>0.01272922016746492</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43069</v>
       </c>
       <c r="B23">
-        <v>0.3549113070000001</v>
-      </c>
-      <c r="C23">
         <v>-0.009350779791993613</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43100</v>
       </c>
       <c r="B24">
-        <v>0.3518153929999999</v>
-      </c>
-      <c r="C24">
         <v>-0.002284956944418104</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43131</v>
       </c>
       <c r="B25">
-        <v>0.3816117569999999</v>
-      </c>
-      <c r="C25">
         <v>0.02204174042868012</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43159</v>
       </c>
       <c r="B26">
-        <v>0.3943688950000002</v>
-      </c>
-      <c r="C26">
         <v>0.009233518704053756</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43190</v>
       </c>
       <c r="B27">
-        <v>0.3861470550000001</v>
-      </c>
-      <c r="C27">
         <v>-0.005896459702652845</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43220</v>
       </c>
       <c r="B28">
-        <v>0.391886014</v>
-      </c>
-      <c r="C28">
         <v>0.00414022378022505</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43251</v>
       </c>
       <c r="B29">
-        <v>0.3832240499999999</v>
-      </c>
-      <c r="C29">
         <v>-0.006223184882149457</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43281</v>
       </c>
       <c r="B30">
-        <v>0.3974641329999999</v>
-      </c>
-      <c r="C30">
         <v>0.01029484919670098</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43312</v>
       </c>
       <c r="B31">
-        <v>0.4060512270000001</v>
-      </c>
-      <c r="C31">
         <v>0.006144768797440081</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43343</v>
       </c>
       <c r="B32">
-        <v>0.4162912689999998</v>
-      </c>
-      <c r="C32">
         <v>0.007282837071198589</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43373</v>
       </c>
       <c r="B33">
-        <v>0.4244773290000001</v>
-      </c>
-      <c r="C33">
         <v>0.005779926897226728</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43404</v>
       </c>
       <c r="B34">
-        <v>0.4456018270000002</v>
-      </c>
-      <c r="C34">
         <v>0.01482964844012624</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43434</v>
       </c>
       <c r="B35">
-        <v>0.4559046280000001</v>
-      </c>
-      <c r="C35">
         <v>0.007126997771842225</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43465</v>
       </c>
       <c r="B36">
-        <v>0.4568913330000002</v>
-      </c>
-      <c r="C36">
         <v>0.0006777263984354409</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43496</v>
       </c>
       <c r="B37">
-        <v>0.4742195649999998</v>
-      </c>
-      <c r="C37">
         <v>0.01189397699574313</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43524</v>
       </c>
       <c r="B38">
-        <v>0.480565455</v>
-      </c>
-      <c r="C38">
         <v>0.004304575892669193</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43555</v>
       </c>
       <c r="B39">
-        <v>0.4851594910000001</v>
-      </c>
-      <c r="C39">
         <v>0.003102892874128349</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43585</v>
       </c>
       <c r="B40">
-        <v>0.491363279</v>
-      </c>
-      <c r="C40">
         <v>0.004177186381391751</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43616</v>
       </c>
       <c r="B41">
-        <v>0.5061838570000001</v>
-      </c>
-      <c r="C41">
         <v>0.009937604209980133</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43646</v>
       </c>
       <c r="B42">
-        <v>0.5205541880000002</v>
-      </c>
-      <c r="C42">
         <v>0.009540887676636522</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43677</v>
       </c>
       <c r="B43">
-        <v>0.5342822540000001</v>
-      </c>
-      <c r="C43">
         <v>0.00902833066282005</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43708</v>
       </c>
       <c r="B44">
-        <v>0.525026244</v>
-      </c>
-      <c r="C44">
         <v>-0.006032794797612318</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43738</v>
       </c>
       <c r="B45">
-        <v>0.529781587</v>
-      </c>
-      <c r="C45">
         <v>0.003118204043182304</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43769</v>
       </c>
       <c r="B46">
-        <v>0.5418571489999999</v>
-      </c>
-      <c r="C46">
         <v>0.007893651030066895</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43799</v>
       </c>
       <c r="B47">
-        <v>0.5510648950000001</v>
-      </c>
-      <c r="C47">
         <v>0.005971854140944366</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43830</v>
       </c>
       <c r="B48">
-        <v>0.5885184480000001</v>
-      </c>
-      <c r="C48">
         <v>0.02414699289548428</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43861</v>
       </c>
       <c r="B49">
-        <v>0.5904481089999998</v>
-      </c>
-      <c r="C49">
         <v>0.001214755171669024</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43890</v>
       </c>
       <c r="B50">
-        <v>0.5751723620000002</v>
-      </c>
-      <c r="C50">
         <v>-0.009604681167249329</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43921</v>
       </c>
       <c r="B51">
-        <v>0.5456413549999999</v>
-      </c>
-      <c r="C51">
         <v>-0.01874779402712778</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43951</v>
       </c>
       <c r="B52">
-        <v>0.596117639</v>
-      </c>
-      <c r="C52">
         <v>0.03265717744722241</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43982</v>
       </c>
       <c r="B53">
-        <v>0.6311040530000001</v>
-      </c>
-      <c r="C53">
         <v>0.02191969635892232</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44012</v>
       </c>
       <c r="B54">
-        <v>0.6578291630000002</v>
-      </c>
-      <c r="C54">
         <v>0.01638467512286912</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44043</v>
       </c>
       <c r="B55">
-        <v>0.669847799</v>
-      </c>
-      <c r="C55">
         <v>0.007249622740530759</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44074</v>
       </c>
       <c r="B56">
-        <v>0.6783206079999999</v>
-      </c>
-      <c r="C56">
         <v>0.00507400075927511</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44104</v>
       </c>
       <c r="B57">
-        <v>0.6722363340000002</v>
-      </c>
-      <c r="C57">
         <v>-0.00362521557025397</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>44135</v>
       </c>
       <c r="B58">
-        <v>0.681711588</v>
-      </c>
-      <c r="C58">
         <v>0.005666217033650334</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>44165</v>
       </c>
       <c r="B59">
-        <v>0.7133242000000002</v>
-      </c>
-      <c r="C59">
-        <v>0.01879787962785939</v>
+        <v>0.01510479096490602</v>
       </c>
     </row>
   </sheetData>
